--- a/data/travel.xlsx
+++ b/data/travel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruthe\Documents\ruthe808.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ECF813-186B-415E-857B-AD88151CF7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA99911-049F-4A95-A7F6-4A0B11AF180A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11110" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{713BCC3A-EE49-470F-BBB2-5AC542FBEB96}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
   <si>
     <t>lat</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Bangkik</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -129,6 +126,225 @@
   </si>
   <si>
     <t>place</t>
+  </si>
+  <si>
+    <t>Kona</t>
+  </si>
+  <si>
+    <t>Lihue</t>
+  </si>
+  <si>
+    <t>Molokai</t>
+  </si>
+  <si>
+    <t>Lanai City</t>
+  </si>
+  <si>
+    <t>Kahului</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Salt Lake City</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Albuquerque</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Rapid City</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Flordia</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Washington D.C.</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Puerto Vallarta</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Florence</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Ulm</t>
+  </si>
+  <si>
+    <t>Koln</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Dachau</t>
+  </si>
+  <si>
+    <t>Venice</t>
+  </si>
+  <si>
+    <t>Tallinn</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Jerusalem</t>
+  </si>
+  <si>
+    <t>Tel Aviv</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
   </si>
 </sst>
 </file>
@@ -480,24 +696,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F736E0-C014-4FF8-96EE-9FE40D77BD2C}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -584,7 +800,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>8.5068999999999999</v>
+        <v>-8.5068999999999999</v>
       </c>
       <c r="D7">
         <v>115.2625</v>
@@ -592,10 +808,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
       <c r="C8">
         <v>13.7563</v>
@@ -606,10 +822,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
       <c r="C9">
         <v>37.551900000000003</v>
@@ -620,10 +836,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
       <c r="C10">
         <v>13.139099999999999</v>
@@ -634,10 +850,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>14.599500000000001</v>
@@ -648,10 +864,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
       <c r="C12">
         <v>37.983800000000002</v>
@@ -662,10 +878,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
       </c>
       <c r="C13">
         <v>30.0444</v>
@@ -676,10 +892,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
       </c>
       <c r="C14">
         <v>30.328499999999998</v>
@@ -690,10 +906,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
       </c>
       <c r="C15">
         <v>31.559000000000001</v>
@@ -704,16 +920,660 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>31.7683</v>
+      </c>
+      <c r="D16">
+        <v>35.213700000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>32.085299999999997</v>
+      </c>
+      <c r="D17">
+        <v>34.781799999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
+      <c r="C18">
         <v>19.721599999999999</v>
       </c>
-      <c r="D16">
-        <v>155.0849</v>
+      <c r="D18">
+        <v>-155.0849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>19.6419</v>
+      </c>
+      <c r="D19">
+        <v>-155.99619999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>21.9742</v>
+      </c>
+      <c r="D20">
+        <v>-159.3673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>21.144400000000001</v>
+      </c>
+      <c r="D21">
+        <v>-157.02260000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>20.8306</v>
+      </c>
+      <c r="D22">
+        <v>-156.9222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>20.889299999999999</v>
+      </c>
+      <c r="D23">
+        <v>-156.47290000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>37.774900000000002</v>
+      </c>
+      <c r="D24">
+        <v>-122.4194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>47.606200000000001</v>
+      </c>
+      <c r="D25">
+        <v>-122.3321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>40.760800000000003</v>
+      </c>
+      <c r="D26">
+        <v>-111.89100000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>35.084400000000002</v>
+      </c>
+      <c r="D27">
+        <v>-106.6504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>39.739199999999997</v>
+      </c>
+      <c r="D28">
+        <v>-104.9903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>44.080500000000001</v>
+      </c>
+      <c r="D29">
+        <v>-103.23099999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>36.162700000000001</v>
+      </c>
+      <c r="D30">
+        <v>-86.781599999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>33.748800000000003</v>
+      </c>
+      <c r="D31">
+        <v>-84.387699999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <v>35.779600000000002</v>
+      </c>
+      <c r="D32">
+        <v>-78.638199999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33">
+        <v>28.538399999999999</v>
+      </c>
+      <c r="D33">
+        <v>-81.378900000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>39.290399999999998</v>
+      </c>
+      <c r="D34">
+        <v>-76.612200000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35">
+        <v>38.907200000000003</v>
+      </c>
+      <c r="D35">
+        <v>-77.036900000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36">
+        <v>40.783099999999997</v>
+      </c>
+      <c r="D36">
+        <v>-73.971199999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>42.360100000000003</v>
+      </c>
+      <c r="D37">
+        <v>-71.058899999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38">
+        <v>41.878100000000003</v>
+      </c>
+      <c r="D38">
+        <v>-87.629800000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39">
+        <v>20.653400000000001</v>
+      </c>
+      <c r="D39">
+        <v>-105.2253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40">
+        <v>50.737400000000001</v>
+      </c>
+      <c r="D40">
+        <v>7.0982000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41">
+        <v>50.8476</v>
+      </c>
+      <c r="D41">
+        <v>4.3571999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42">
+        <v>51.221299999999999</v>
+      </c>
+      <c r="D42">
+        <v>4.4051</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43">
+        <v>51.507199999999997</v>
+      </c>
+      <c r="D43">
+        <v>-0.12759999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44">
+        <v>48.8566</v>
+      </c>
+      <c r="D44">
+        <v>2.3521999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45">
+        <v>41.902799999999999</v>
+      </c>
+      <c r="D45">
+        <v>12.4964</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46">
+        <v>43.769599999999997</v>
+      </c>
+      <c r="D46">
+        <v>11.255800000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47">
+        <v>43.722799999999999</v>
+      </c>
+      <c r="D47">
+        <v>10.4017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48">
+        <v>48.208199999999998</v>
+      </c>
+      <c r="D48">
+        <v>16.373799999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49">
+        <v>47.8095</v>
+      </c>
+      <c r="D49">
+        <v>13.055</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50">
+        <v>48.135100000000001</v>
+      </c>
+      <c r="D50">
+        <v>11.582000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>48.4011</v>
+      </c>
+      <c r="D51">
+        <v>9.9876000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52">
+        <v>50.9375</v>
+      </c>
+      <c r="D52">
+        <v>6.9603000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53">
+        <v>49.815300000000001</v>
+      </c>
+      <c r="D53">
+        <v>6.1295999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54">
+        <v>50.075499999999998</v>
+      </c>
+      <c r="D54">
+        <v>14.437799999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55">
+        <v>47.376899999999999</v>
+      </c>
+      <c r="D55">
+        <v>8.5417000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56">
+        <v>48.263199999999998</v>
+      </c>
+      <c r="D56">
+        <v>11.434200000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57">
+        <v>45.440800000000003</v>
+      </c>
+      <c r="D57">
+        <v>12.3155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58">
+        <v>59.436999999999998</v>
+      </c>
+      <c r="D58">
+        <v>24.753599999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59">
+        <v>60.169899999999998</v>
+      </c>
+      <c r="D59">
+        <v>24.938400000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60">
+        <v>59.913899999999998</v>
+      </c>
+      <c r="D60">
+        <v>10.7522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61">
+        <v>55.676099999999998</v>
+      </c>
+      <c r="D61">
+        <v>12.568300000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62">
+        <v>31.952200000000001</v>
+      </c>
+      <c r="D62">
+        <v>35.233199999999997</v>
       </c>
     </row>
   </sheetData>

--- a/data/travel.xlsx
+++ b/data/travel.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruthe\Documents\ruthe808.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA99911-049F-4A95-A7F6-4A0B11AF180A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56341BCE-081B-4682-9F91-A9359F97DC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11110" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{713BCC3A-EE49-470F-BBB2-5AC542FBEB96}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{713BCC3A-EE49-470F-BBB2-5AC542FBEB96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$64</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
   <si>
     <t>lat</t>
   </si>
@@ -345,6 +348,42 @@
   </si>
   <si>
     <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>Santa Barbara</t>
+  </si>
+  <si>
+    <t>Fremont</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Geneva</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Sweden</t>
   </si>
 </sst>
 </file>
@@ -696,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F736E0-C014-4FF8-96EE-9FE40D77BD2C}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,856 +763,996 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C2">
-        <v>25.032969000000001</v>
+        <v>47.8095</v>
       </c>
       <c r="D2">
-        <v>121.565414</v>
+        <v>13.055</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C3">
-        <v>35.689487</v>
+        <v>48.208199999999998</v>
       </c>
       <c r="D3">
-        <v>139.691711</v>
+        <v>16.373799999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C4">
-        <v>43.062095999999997</v>
+        <v>51.221299999999999</v>
       </c>
       <c r="D4">
-        <v>141.35436999999999</v>
+        <v>4.4051</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C5">
-        <v>25.109200000000001</v>
+        <v>50.8476</v>
       </c>
       <c r="D5">
-        <v>121.8463</v>
+        <v>4.3571999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>1.4491000000000001</v>
+        <v>37.774900000000002</v>
       </c>
       <c r="D6">
-        <v>103.8185</v>
+        <v>-122.4194</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>-8.5068999999999999</v>
+        <v>34.052199999999999</v>
       </c>
       <c r="D7">
-        <v>115.2625</v>
+        <v>-118.2437</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>13.7563</v>
+        <v>32.715699999999998</v>
       </c>
       <c r="D8">
-        <v>100.5018</v>
+        <v>-117.1611</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>37.551900000000003</v>
+        <v>34.4208</v>
       </c>
       <c r="D9">
-        <v>126.9918</v>
+        <v>-119.6982</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>13.139099999999999</v>
+        <v>37.548499999999997</v>
       </c>
       <c r="D10">
-        <v>123.74379999999999</v>
+        <v>-121.98860000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>14.599500000000001</v>
+        <v>39.739199999999997</v>
       </c>
       <c r="D11">
-        <v>120.9842</v>
+        <v>-104.9903</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C12">
-        <v>37.983800000000002</v>
+        <v>50.075499999999998</v>
       </c>
       <c r="D12">
-        <v>23.727499999999999</v>
+        <v>14.437799999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C13">
-        <v>30.0444</v>
+        <v>55.676099999999998</v>
       </c>
       <c r="D13">
-        <v>31.235700000000001</v>
+        <v>12.568300000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>30.328499999999998</v>
+        <v>30.0444</v>
       </c>
       <c r="D14">
-        <v>35.444400000000002</v>
+        <v>31.235700000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C15">
-        <v>31.559000000000001</v>
+        <v>59.436999999999998</v>
       </c>
       <c r="D15">
-        <v>35.473199999999999</v>
+        <v>24.753599999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="C16">
-        <v>31.7683</v>
+        <v>60.169899999999998</v>
       </c>
       <c r="D16">
-        <v>35.213700000000003</v>
+        <v>24.938400000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C17">
-        <v>32.085299999999997</v>
+        <v>28.538399999999999</v>
       </c>
       <c r="D17">
-        <v>34.781799999999997</v>
+        <v>-81.378900000000002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C18">
-        <v>19.721599999999999</v>
+        <v>49.815300000000001</v>
       </c>
       <c r="D18">
-        <v>-155.0849</v>
+        <v>6.1295999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C19">
-        <v>19.6419</v>
+        <v>48.8566</v>
       </c>
       <c r="D19">
-        <v>-155.99619999999999</v>
+        <v>2.3521999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C20">
-        <v>21.9742</v>
+        <v>33.748800000000003</v>
       </c>
       <c r="D20">
-        <v>-159.3673</v>
+        <v>-84.387699999999995</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C21">
-        <v>21.144400000000001</v>
+        <v>50.737400000000001</v>
       </c>
       <c r="D21">
-        <v>-157.02260000000001</v>
+        <v>7.0982000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C22">
-        <v>20.8306</v>
+        <v>48.263199999999998</v>
       </c>
       <c r="D22">
-        <v>-156.9222</v>
+        <v>11.434200000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C23">
-        <v>20.889299999999999</v>
+        <v>50.9375</v>
       </c>
       <c r="D23">
-        <v>-156.47290000000001</v>
+        <v>6.9603000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C24">
-        <v>37.774900000000002</v>
+        <v>48.135100000000001</v>
       </c>
       <c r="D24">
-        <v>-122.4194</v>
+        <v>11.582000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C25">
-        <v>47.606200000000001</v>
+        <v>48.4011</v>
       </c>
       <c r="D25">
-        <v>-122.3321</v>
+        <v>9.9876000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C26">
-        <v>40.760800000000003</v>
+        <v>50.110900000000001</v>
       </c>
       <c r="D26">
-        <v>-111.89100000000001</v>
+        <v>8.6821000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C27">
-        <v>35.084400000000002</v>
+        <v>52.52</v>
       </c>
       <c r="D27">
-        <v>-106.6504</v>
+        <v>13.404999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C28">
-        <v>39.739199999999997</v>
+        <v>53.5488</v>
       </c>
       <c r="D28">
-        <v>-104.9903</v>
+        <v>9.9871999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C29">
-        <v>44.080500000000001</v>
+        <v>37.983800000000002</v>
       </c>
       <c r="D29">
-        <v>-103.23099999999999</v>
+        <v>23.727499999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>36.162700000000001</v>
+        <v>19.721599999999999</v>
       </c>
       <c r="D30">
-        <v>-86.781599999999997</v>
+        <v>-155.0849</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C31">
-        <v>33.748800000000003</v>
+        <v>20.889299999999999</v>
       </c>
       <c r="D31">
-        <v>-84.387699999999995</v>
+        <v>-156.47290000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>35.779600000000002</v>
+        <v>19.6419</v>
       </c>
       <c r="D32">
-        <v>-78.638199999999998</v>
+        <v>-155.99619999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C33">
-        <v>28.538399999999999</v>
+        <v>20.8306</v>
       </c>
       <c r="D33">
-        <v>-81.378900000000002</v>
+        <v>-156.9222</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C34">
-        <v>39.290399999999998</v>
+        <v>21.9742</v>
       </c>
       <c r="D34">
-        <v>-76.612200000000001</v>
+        <v>-159.3673</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C35">
-        <v>38.907200000000003</v>
+        <v>21.144400000000001</v>
       </c>
       <c r="D35">
-        <v>-77.036900000000003</v>
+        <v>-157.02260000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="C36">
-        <v>40.783099999999997</v>
+        <v>47.497900000000001</v>
       </c>
       <c r="D36">
-        <v>-73.971199999999996</v>
+        <v>19.040199999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C37">
-        <v>42.360100000000003</v>
+        <v>41.878100000000003</v>
       </c>
       <c r="D37">
-        <v>-71.058899999999994</v>
+        <v>-87.629800000000003</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C38">
-        <v>41.878100000000003</v>
+        <v>-8.5068999999999999</v>
       </c>
       <c r="D38">
-        <v>-87.629800000000003</v>
+        <v>115.2625</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>20.653400000000001</v>
+        <v>31.7683</v>
       </c>
       <c r="D39">
-        <v>-105.2253</v>
+        <v>35.213700000000003</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C40">
-        <v>50.737400000000001</v>
+        <v>32.085299999999997</v>
       </c>
       <c r="D40">
-        <v>7.0982000000000003</v>
+        <v>34.781799999999997</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <v>50.8476</v>
+        <v>31.559000000000001</v>
       </c>
       <c r="D41">
-        <v>4.3571999999999997</v>
+        <v>35.473199999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C42">
-        <v>51.221299999999999</v>
+        <v>43.769599999999997</v>
       </c>
       <c r="D42">
-        <v>4.4051</v>
+        <v>11.255800000000001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C43">
-        <v>51.507199999999997</v>
+        <v>43.722799999999999</v>
       </c>
       <c r="D43">
-        <v>-0.12759999999999999</v>
+        <v>10.4017</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C44">
-        <v>48.8566</v>
+        <v>41.902799999999999</v>
       </c>
       <c r="D44">
-        <v>2.3521999999999998</v>
+        <v>12.4964</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
         <v>75</v>
       </c>
       <c r="C45">
-        <v>41.902799999999999</v>
+        <v>45.440800000000003</v>
       </c>
       <c r="D45">
-        <v>12.4964</v>
+        <v>12.3155</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>43.769599999999997</v>
+        <v>43.062095999999997</v>
       </c>
       <c r="D46">
-        <v>11.255800000000001</v>
+        <v>141.35436999999999</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>43.722799999999999</v>
+        <v>35.689487</v>
       </c>
       <c r="D47">
-        <v>10.4017</v>
+        <v>139.691711</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C48">
-        <v>48.208199999999998</v>
+        <v>30.328499999999998</v>
       </c>
       <c r="D48">
-        <v>16.373799999999999</v>
+        <v>35.444400000000002</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>47.8095</v>
+        <v>37.551900000000003</v>
       </c>
       <c r="D49">
-        <v>13.055</v>
+        <v>126.9918</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50">
-        <v>48.135100000000001</v>
+        <v>39.290399999999998</v>
       </c>
       <c r="D50">
-        <v>11.582000000000001</v>
+        <v>-76.612200000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C51">
-        <v>48.4011</v>
+        <v>42.360100000000003</v>
       </c>
       <c r="D51">
-        <v>9.9876000000000005</v>
+        <v>-71.058899999999994</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C52">
-        <v>50.9375</v>
+        <v>20.653400000000001</v>
       </c>
       <c r="D52">
-        <v>6.9603000000000002</v>
+        <v>-105.2253</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C53">
-        <v>49.815300000000001</v>
+        <v>35.084400000000002</v>
       </c>
       <c r="D53">
-        <v>6.1295999999999999</v>
+        <v>-106.6504</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C54">
-        <v>50.075499999999998</v>
+        <v>40.783099999999997</v>
       </c>
       <c r="D54">
-        <v>14.437799999999999</v>
+        <v>-73.971199999999996</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C55">
-        <v>47.376899999999999</v>
+        <v>35.779600000000002</v>
       </c>
       <c r="D55">
-        <v>8.5417000000000005</v>
+        <v>-78.638199999999998</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C56">
-        <v>48.263199999999998</v>
+        <v>59.913899999999998</v>
       </c>
       <c r="D56">
-        <v>11.434200000000001</v>
+        <v>10.7522</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C57">
-        <v>45.440800000000003</v>
+        <v>31.952200000000001</v>
       </c>
       <c r="D57">
-        <v>12.3155</v>
+        <v>35.233199999999997</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <v>59.436999999999998</v>
+        <v>13.139099999999999</v>
       </c>
       <c r="D58">
-        <v>24.753599999999999</v>
+        <v>123.74379999999999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>60.169899999999998</v>
+        <v>14.599500000000001</v>
       </c>
       <c r="D59">
-        <v>24.938400000000001</v>
+        <v>120.9842</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>59.913899999999998</v>
+        <v>1.4491000000000001</v>
       </c>
       <c r="D60">
-        <v>10.7522</v>
+        <v>103.8185</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="C61">
-        <v>55.676099999999998</v>
+        <v>44.080500000000001</v>
       </c>
       <c r="D61">
-        <v>12.568300000000001</v>
+        <v>-103.23099999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C62">
-        <v>31.952200000000001</v>
+        <v>59.329300000000003</v>
       </c>
       <c r="D62">
-        <v>35.233199999999997</v>
+        <v>18.0686</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>47.376899999999999</v>
+      </c>
+      <c r="D63">
+        <v>8.5417000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64">
+        <v>46.2044</v>
+      </c>
+      <c r="D64">
+        <v>6.1432000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>25.109200000000001</v>
+      </c>
+      <c r="D65">
+        <v>121.8463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>25.032969000000001</v>
+      </c>
+      <c r="D66">
+        <v>121.565414</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67">
+        <v>36.162700000000001</v>
+      </c>
+      <c r="D67">
+        <v>-86.781599999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>13.7563</v>
+      </c>
+      <c r="D68">
+        <v>100.5018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69">
+        <v>51.507199999999997</v>
+      </c>
+      <c r="D69">
+        <v>-0.12759999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>40.760800000000003</v>
+      </c>
+      <c r="D70">
+        <v>-111.89100000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71">
+        <v>47.606200000000001</v>
+      </c>
+      <c r="D71">
+        <v>-122.3321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72">
+        <v>38.907200000000003</v>
+      </c>
+      <c r="D72">
+        <v>-77.036900000000003</v>
       </c>
     </row>
   </sheetData>
